--- a/src/main/resources/file/dvdsv功能列表.xlsx
+++ b/src/main/resources/file/dvdsv功能列表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>dvdsv功能列表</t>
   </si>
@@ -20,6 +20,9 @@
     <t>序号</t>
   </si>
   <si>
+    <t>功能ID</t>
+  </si>
+  <si>
     <t>功能</t>
   </si>
   <si>
@@ -29,6 +32,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>删除信息</t>
   </si>
   <si>
@@ -38,6 +44,9 @@
     <t>用于测试的功能</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>完成信息</t>
   </si>
   <si>
@@ -45,6 +54,9 @@
   </si>
   <si>
     <t>用于测试的功能2</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>完成登记信息</t>
@@ -124,8 +136,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="25.0" customWidth="true"/>
-    <col min="4" max="4" width="30.0" customWidth="true"/>
+    <col min="4" max="4" width="25.0" customWidth="true"/>
+    <col min="5" max="5" width="30.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -146,19 +158,25 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -166,13 +184,16 @@
         <v>2.0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -180,18 +201,21 @@
         <v>3.0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
